--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-lab-task-output</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-lab-task-output</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-lab-task-output</t>
+    <t>https://openhie.github.io/cares-covid-ig/CodeSystem/cs-lab-task-output</t>
   </si>
 </sst>
 </file>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-lab-task-output</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-lab-task-output</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/CodeSystem/cs-lab-task-output</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/CodeSystem/cs-lab-task-output</t>
   </si>
 </sst>
 </file>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T11:54:57+00:00</t>
+    <t>2023-01-11T13:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-lab-task-output.xlsx
+++ b/branches/Richard/ValueSet-vs-lab-task-output.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
